--- a/src/ontology/Ontorat files/LINCS_Primary_Cells_2018Jan_afterOntorat.xlsx
+++ b/src/ontology/Ontorat files/LINCS_Primary_Cells_2018Jan_afterOntorat.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="132" yWindow="504" windowWidth="18876" windowHeight="6828"/>
   </bookViews>
   <sheets>
-    <sheet name="Primary_Cells_20171127" sheetId="1" r:id="rId4"/>
+    <sheet name="Primary_Cells_20171127" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="344">
   <si>
     <t>Term ID</t>
   </si>
@@ -864,36 +863,208 @@
   </si>
   <si>
     <t>PWS-711-011</t>
+  </si>
+  <si>
+    <t>LINCS protal URL</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1001</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1002</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1003</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1004</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1005</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1006</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1007</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1008</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1009</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1010</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1011</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1012</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1013</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1014</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1015</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1016</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1017</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1018</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1019</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1020</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1021</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1022</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1023</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1024</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1025</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1026</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1027</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1028</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1029</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1030</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1031</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1032</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1033</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1034</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1035</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1036</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1037</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1038</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1039</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1040</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1041</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1042</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1043</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1044</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1045</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1046</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1047</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1048</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1049</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1050</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1051</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1052</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1053</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1054</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1055</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1056</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1057</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1058</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1059</t>
+  </si>
+  <si>
+    <t>http://lincsportal.ccs.miami.edu/cells/#/view/LPC-1060</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <sz val="11"/>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -903,21 +1074,31 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1205,32 +1386,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" customWidth="true" style="0"/>
-    <col min="3" max="3" width="28.6640625" customWidth="true" style="0"/>
-    <col min="4" max="4" width="14.77734375" customWidth="true" style="0"/>
-    <col min="5" max="5" width="19.109375" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20.33203125" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8.88671875" customWidth="true" style="0"/>
-    <col min="9" max="9" width="23.109375" customWidth="true" style="0"/>
-    <col min="10" max="10" width="38.5546875" customWidth="true" style="0"/>
-    <col min="13" max="13" width="17.77734375" customWidth="true" style="0"/>
-    <col min="15" max="15" width="26.33203125" customWidth="true" style="0"/>
-    <col min="16" max="16" width="157.33203125" customWidth="true" style="0"/>
-    <col min="17" max="17" width="95.44140625" customWidth="true" style="0"/>
-    <col min="18" max="18" width="21.109375" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" customWidth="1"/>
+    <col min="16" max="16" width="157.33203125" customWidth="1"/>
+    <col min="17" max="17" width="95.44140625" customWidth="1"/>
+    <col min="18" max="18" width="21.109375" customWidth="1"/>
+    <col min="19" max="19" width="47.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1285,8 +1466,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="S1" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1305,7 +1489,6 @@
       <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G2"/>
       <c r="H2" t="s">
         <v>24</v>
       </c>
@@ -1327,15 +1510,14 @@
       <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2"/>
       <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="S2" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1354,7 +1536,6 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3"/>
       <c r="H3" t="s">
         <v>24</v>
       </c>
@@ -1376,15 +1557,14 @@
       <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3"/>
       <c r="R3" t="s">
         <v>30</v>
       </c>
-      <c r="S3" t="s"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="S3" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1403,7 +1583,6 @@
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4"/>
       <c r="H4" t="s">
         <v>24</v>
       </c>
@@ -1425,15 +1604,14 @@
       <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4"/>
       <c r="R4" t="s">
         <v>30</v>
       </c>
-      <c r="S4" t="s"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="S4" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1452,7 +1630,6 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5"/>
       <c r="H5" t="s">
         <v>24</v>
       </c>
@@ -1474,15 +1651,14 @@
       <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5"/>
       <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="S5" t="s"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="S5" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1501,7 +1677,6 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="G6"/>
       <c r="H6" t="s">
         <v>24</v>
       </c>
@@ -1523,15 +1698,14 @@
       <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6"/>
       <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="S6" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1550,7 +1724,6 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="G7"/>
       <c r="H7" t="s">
         <v>24</v>
       </c>
@@ -1572,15 +1745,14 @@
       <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7"/>
       <c r="R7" t="s">
         <v>30</v>
       </c>
-      <c r="S7" t="s"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="S7" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1599,7 +1771,6 @@
       <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="G8"/>
       <c r="H8" t="s">
         <v>53</v>
       </c>
@@ -1609,19 +1780,14 @@
       <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8"/>
       <c r="R8" t="s">
         <v>30</v>
       </c>
-      <c r="S8" t="s"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="S8" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1640,7 +1806,6 @@
       <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="G9"/>
       <c r="H9" t="s">
         <v>53</v>
       </c>
@@ -1650,19 +1815,14 @@
       <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9"/>
       <c r="R9" t="s">
         <v>30</v>
       </c>
-      <c r="S9" t="s"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="S9" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1681,7 +1841,6 @@
       <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="G10"/>
       <c r="H10" t="s">
         <v>53</v>
       </c>
@@ -1691,19 +1850,14 @@
       <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10"/>
       <c r="R10" t="s">
         <v>30</v>
       </c>
-      <c r="S10" t="s"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="S10" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1722,7 +1876,6 @@
       <c r="F11" t="s">
         <v>65</v>
       </c>
-      <c r="G11"/>
       <c r="H11" t="s">
         <v>53</v>
       </c>
@@ -1738,19 +1891,17 @@
       <c r="L11">
         <v>40</v>
       </c>
-      <c r="M11" t="s"/>
-      <c r="N11"/>
       <c r="O11" t="s">
         <v>67</v>
       </c>
-      <c r="P11" t="s"/>
-      <c r="Q11"/>
       <c r="R11" t="s">
         <v>30</v>
       </c>
-      <c r="S11" t="s"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="S11" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -1769,7 +1920,6 @@
       <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="G12"/>
       <c r="H12" t="s">
         <v>53</v>
       </c>
@@ -1785,19 +1935,17 @@
       <c r="L12">
         <v>56</v>
       </c>
-      <c r="M12" t="s"/>
-      <c r="N12"/>
       <c r="O12" t="s">
         <v>67</v>
       </c>
-      <c r="P12" t="s"/>
-      <c r="Q12"/>
       <c r="R12" t="s">
         <v>30</v>
       </c>
-      <c r="S12" t="s"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="S12" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1816,7 +1964,6 @@
       <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="G13"/>
       <c r="H13" t="s">
         <v>53</v>
       </c>
@@ -1832,19 +1979,17 @@
       <c r="L13">
         <v>63</v>
       </c>
-      <c r="M13" t="s"/>
-      <c r="N13"/>
       <c r="O13" t="s">
         <v>67</v>
       </c>
-      <c r="P13" t="s"/>
-      <c r="Q13"/>
       <c r="R13" t="s">
         <v>30</v>
       </c>
-      <c r="S13" t="s"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="S13" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1863,7 +2008,6 @@
       <c r="F14" t="s">
         <v>65</v>
       </c>
-      <c r="G14"/>
       <c r="H14" t="s">
         <v>53</v>
       </c>
@@ -1879,19 +2023,17 @@
       <c r="L14">
         <v>73</v>
       </c>
-      <c r="M14" t="s"/>
-      <c r="N14"/>
       <c r="O14" t="s">
         <v>67</v>
       </c>
-      <c r="P14" t="s"/>
-      <c r="Q14"/>
       <c r="R14" t="s">
         <v>30</v>
       </c>
-      <c r="S14" t="s"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="S14" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1925,7 +2067,6 @@
       <c r="K15" t="s">
         <v>34</v>
       </c>
-      <c r="L15"/>
       <c r="M15" t="s">
         <v>28</v>
       </c>
@@ -1944,9 +2085,11 @@
       <c r="R15" t="s">
         <v>30</v>
       </c>
-      <c r="S15" t="s"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="S15" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -1965,8 +2108,6 @@
       <c r="F16" t="s">
         <v>91</v>
       </c>
-      <c r="G16" t="s"/>
-      <c r="H16"/>
       <c r="I16" t="s">
         <v>83</v>
       </c>
@@ -1997,9 +2138,11 @@
       <c r="R16" t="s">
         <v>30</v>
       </c>
-      <c r="S16" t="s"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="S16" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -2018,8 +2161,6 @@
       <c r="F17" t="s">
         <v>97</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17"/>
       <c r="I17" t="s">
         <v>83</v>
       </c>
@@ -2050,9 +2191,11 @@
       <c r="R17" t="s">
         <v>30</v>
       </c>
-      <c r="S17" t="s"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="S17" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -2071,8 +2214,6 @@
       <c r="F18" t="s">
         <v>102</v>
       </c>
-      <c r="G18" t="s"/>
-      <c r="H18"/>
       <c r="I18" t="s">
         <v>83</v>
       </c>
@@ -2085,8 +2226,6 @@
       <c r="L18">
         <v>46</v>
       </c>
-      <c r="M18" t="s"/>
-      <c r="N18"/>
       <c r="O18" t="s">
         <v>104</v>
       </c>
@@ -2099,9 +2238,11 @@
       <c r="R18" t="s">
         <v>30</v>
       </c>
-      <c r="S18" t="s"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="S18" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -2114,9 +2255,6 @@
       <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="E19" t="s"/>
-      <c r="F19" t="s"/>
-      <c r="G19"/>
       <c r="H19" t="s">
         <v>83</v>
       </c>
@@ -2126,21 +2264,17 @@
       <c r="J19" t="s">
         <v>84</v>
       </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
-      <c r="M19" t="s"/>
-      <c r="N19"/>
       <c r="O19" t="s">
         <v>104</v>
       </c>
-      <c r="P19" t="s"/>
-      <c r="Q19"/>
       <c r="R19" t="s">
         <v>30</v>
       </c>
-      <c r="S19" t="s"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="S19" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -2159,8 +2293,6 @@
       <c r="F20" t="s">
         <v>112</v>
       </c>
-      <c r="G20" t="s"/>
-      <c r="H20"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
@@ -2173,8 +2305,6 @@
       <c r="L20">
         <v>53</v>
       </c>
-      <c r="M20" t="s"/>
-      <c r="N20"/>
       <c r="O20" t="s">
         <v>104</v>
       </c>
@@ -2187,9 +2317,11 @@
       <c r="R20" t="s">
         <v>30</v>
       </c>
-      <c r="S20" t="s"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="S20" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -2208,8 +2340,6 @@
       <c r="F21" t="s">
         <v>116</v>
       </c>
-      <c r="G21" t="s"/>
-      <c r="H21"/>
       <c r="I21" t="s">
         <v>83</v>
       </c>
@@ -2222,8 +2352,6 @@
       <c r="L21">
         <v>60</v>
       </c>
-      <c r="M21" t="s"/>
-      <c r="N21"/>
       <c r="O21" t="s">
         <v>104</v>
       </c>
@@ -2236,9 +2364,11 @@
       <c r="R21" t="s">
         <v>30</v>
       </c>
-      <c r="S21" t="s"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="S21" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -2257,8 +2387,6 @@
       <c r="F22" t="s">
         <v>119</v>
       </c>
-      <c r="G22" t="s"/>
-      <c r="H22"/>
       <c r="I22" t="s">
         <v>83</v>
       </c>
@@ -2289,9 +2417,11 @@
       <c r="R22" t="s">
         <v>30</v>
       </c>
-      <c r="S22" t="s"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="S22" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -2310,8 +2440,6 @@
       <c r="F23" t="s">
         <v>126</v>
       </c>
-      <c r="G23" t="s"/>
-      <c r="H23"/>
       <c r="I23" t="s">
         <v>83</v>
       </c>
@@ -2321,7 +2449,6 @@
       <c r="K23" t="s">
         <v>27</v>
       </c>
-      <c r="L23"/>
       <c r="M23" t="s">
         <v>28</v>
       </c>
@@ -2334,13 +2461,14 @@
       <c r="P23" t="s">
         <v>128</v>
       </c>
-      <c r="Q23"/>
       <c r="R23" t="s">
         <v>30</v>
       </c>
-      <c r="S23" t="s"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="S23" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -2395,9 +2523,11 @@
       <c r="R24" t="s">
         <v>30</v>
       </c>
-      <c r="S24" t="s"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="S24" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -2413,7 +2543,6 @@
       <c r="E25" t="s">
         <v>140</v>
       </c>
-      <c r="F25"/>
       <c r="G25" t="s">
         <v>141</v>
       </c>
@@ -2438,15 +2567,14 @@
       <c r="N25" t="s">
         <v>29</v>
       </c>
-      <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
-      <c r="Q25"/>
       <c r="R25" t="s">
         <v>30</v>
       </c>
-      <c r="S25" t="s"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="S25" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -2462,7 +2590,6 @@
       <c r="E26" t="s">
         <v>140</v>
       </c>
-      <c r="F26"/>
       <c r="G26" t="s">
         <v>141</v>
       </c>
@@ -2487,15 +2614,14 @@
       <c r="N26" t="s">
         <v>29</v>
       </c>
-      <c r="O26" t="s"/>
-      <c r="P26" t="s"/>
-      <c r="Q26"/>
       <c r="R26" t="s">
         <v>30</v>
       </c>
-      <c r="S26" t="s"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="S26" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -2511,7 +2637,6 @@
       <c r="E27" t="s">
         <v>140</v>
       </c>
-      <c r="F27"/>
       <c r="G27" t="s">
         <v>141</v>
       </c>
@@ -2536,15 +2661,14 @@
       <c r="N27" t="s">
         <v>29</v>
       </c>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
-      <c r="Q27"/>
       <c r="R27" t="s">
         <v>30</v>
       </c>
-      <c r="S27" t="s"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="S27" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -2560,7 +2684,6 @@
       <c r="E28" t="s">
         <v>140</v>
       </c>
-      <c r="F28"/>
       <c r="G28" t="s">
         <v>141</v>
       </c>
@@ -2585,15 +2708,14 @@
       <c r="N28" t="s">
         <v>29</v>
       </c>
-      <c r="O28" t="s"/>
-      <c r="P28" t="s"/>
-      <c r="Q28"/>
       <c r="R28" t="s">
         <v>30</v>
       </c>
-      <c r="S28" t="s"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="S28" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -2609,7 +2731,6 @@
       <c r="E29" t="s">
         <v>140</v>
       </c>
-      <c r="F29"/>
       <c r="G29" t="s">
         <v>141</v>
       </c>
@@ -2634,15 +2755,14 @@
       <c r="N29" t="s">
         <v>29</v>
       </c>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
-      <c r="Q29"/>
       <c r="R29" t="s">
         <v>30</v>
       </c>
-      <c r="S29" t="s"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="S29" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>157</v>
       </c>
@@ -2658,7 +2778,6 @@
       <c r="E30" t="s">
         <v>140</v>
       </c>
-      <c r="F30"/>
       <c r="G30" t="s">
         <v>141</v>
       </c>
@@ -2683,15 +2802,14 @@
       <c r="N30" t="s">
         <v>29</v>
       </c>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
-      <c r="Q30"/>
       <c r="R30" t="s">
         <v>30</v>
       </c>
-      <c r="S30" t="s"/>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="S30" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -2707,7 +2825,6 @@
       <c r="E31" t="s">
         <v>140</v>
       </c>
-      <c r="F31"/>
       <c r="G31" t="s">
         <v>141</v>
       </c>
@@ -2732,15 +2849,14 @@
       <c r="N31" t="s">
         <v>29</v>
       </c>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
-      <c r="Q31"/>
       <c r="R31" t="s">
         <v>30</v>
       </c>
-      <c r="S31" t="s"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="S31" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -2756,7 +2872,6 @@
       <c r="E32" t="s">
         <v>140</v>
       </c>
-      <c r="F32"/>
       <c r="G32" t="s">
         <v>141</v>
       </c>
@@ -2781,15 +2896,14 @@
       <c r="N32" t="s">
         <v>29</v>
       </c>
-      <c r="O32" t="s"/>
-      <c r="P32" t="s"/>
-      <c r="Q32"/>
       <c r="R32" t="s">
         <v>30</v>
       </c>
-      <c r="S32" t="s"/>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="S32" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>167</v>
       </c>
@@ -2805,7 +2919,6 @@
       <c r="E33" t="s">
         <v>140</v>
       </c>
-      <c r="F33"/>
       <c r="G33" t="s">
         <v>141</v>
       </c>
@@ -2830,15 +2943,14 @@
       <c r="N33" t="s">
         <v>29</v>
       </c>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
-      <c r="Q33"/>
       <c r="R33" t="s">
         <v>30</v>
       </c>
-      <c r="S33" t="s"/>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="S33" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>170</v>
       </c>
@@ -2854,7 +2966,6 @@
       <c r="E34" t="s">
         <v>140</v>
       </c>
-      <c r="F34"/>
       <c r="G34" t="s">
         <v>141</v>
       </c>
@@ -2879,15 +2990,14 @@
       <c r="N34" t="s">
         <v>29</v>
       </c>
-      <c r="O34" t="s"/>
-      <c r="P34" t="s"/>
-      <c r="Q34"/>
       <c r="R34" t="s">
         <v>30</v>
       </c>
-      <c r="S34" t="s"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="S34" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>173</v>
       </c>
@@ -2903,7 +3013,6 @@
       <c r="E35" t="s">
         <v>140</v>
       </c>
-      <c r="F35"/>
       <c r="G35" t="s">
         <v>141</v>
       </c>
@@ -2928,15 +3037,14 @@
       <c r="N35" t="s">
         <v>29</v>
       </c>
-      <c r="O35" t="s"/>
-      <c r="P35" t="s"/>
-      <c r="Q35"/>
       <c r="R35" t="s">
         <v>30</v>
       </c>
-      <c r="S35" t="s"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="S35" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>176</v>
       </c>
@@ -2952,7 +3060,6 @@
       <c r="E36" t="s">
         <v>140</v>
       </c>
-      <c r="F36"/>
       <c r="G36" t="s">
         <v>141</v>
       </c>
@@ -2977,15 +3084,14 @@
       <c r="N36" t="s">
         <v>29</v>
       </c>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
-      <c r="Q36"/>
       <c r="R36" t="s">
         <v>30</v>
       </c>
-      <c r="S36" t="s"/>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="S36" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -3001,7 +3107,6 @@
       <c r="E37" t="s">
         <v>140</v>
       </c>
-      <c r="F37"/>
       <c r="G37" t="s">
         <v>141</v>
       </c>
@@ -3026,15 +3131,14 @@
       <c r="N37" t="s">
         <v>29</v>
       </c>
-      <c r="O37" t="s"/>
-      <c r="P37" t="s"/>
-      <c r="Q37"/>
       <c r="R37" t="s">
         <v>30</v>
       </c>
-      <c r="S37" t="s"/>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="S37" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -3050,7 +3154,6 @@
       <c r="E38" t="s">
         <v>140</v>
       </c>
-      <c r="F38"/>
       <c r="G38" t="s">
         <v>141</v>
       </c>
@@ -3075,15 +3178,14 @@
       <c r="N38" t="s">
         <v>29</v>
       </c>
-      <c r="O38" t="s"/>
-      <c r="P38" t="s"/>
-      <c r="Q38"/>
       <c r="R38" t="s">
         <v>30</v>
       </c>
-      <c r="S38" t="s"/>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="S38" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -3099,7 +3201,6 @@
       <c r="E39" t="s">
         <v>140</v>
       </c>
-      <c r="F39"/>
       <c r="G39" t="s">
         <v>141</v>
       </c>
@@ -3124,15 +3225,14 @@
       <c r="N39" t="s">
         <v>29</v>
       </c>
-      <c r="O39" t="s"/>
-      <c r="P39" t="s"/>
-      <c r="Q39"/>
       <c r="R39" t="s">
         <v>30</v>
       </c>
-      <c r="S39" t="s"/>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="S39" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>189</v>
       </c>
@@ -3148,7 +3248,6 @@
       <c r="E40" t="s">
         <v>140</v>
       </c>
-      <c r="F40"/>
       <c r="G40" t="s">
         <v>141</v>
       </c>
@@ -3173,15 +3272,14 @@
       <c r="N40" t="s">
         <v>29</v>
       </c>
-      <c r="O40" t="s"/>
-      <c r="P40" t="s"/>
-      <c r="Q40"/>
       <c r="R40" t="s">
         <v>30</v>
       </c>
-      <c r="S40" t="s"/>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="S40" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>192</v>
       </c>
@@ -3197,7 +3295,6 @@
       <c r="E41" t="s">
         <v>140</v>
       </c>
-      <c r="F41"/>
       <c r="G41" t="s">
         <v>141</v>
       </c>
@@ -3222,15 +3319,14 @@
       <c r="N41" t="s">
         <v>29</v>
       </c>
-      <c r="O41" t="s"/>
-      <c r="P41" t="s"/>
-      <c r="Q41"/>
       <c r="R41" t="s">
         <v>30</v>
       </c>
-      <c r="S41" t="s"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="S41" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>195</v>
       </c>
@@ -3246,7 +3342,6 @@
       <c r="E42" t="s">
         <v>140</v>
       </c>
-      <c r="F42"/>
       <c r="G42" t="s">
         <v>141</v>
       </c>
@@ -3271,15 +3366,14 @@
       <c r="N42" t="s">
         <v>29</v>
       </c>
-      <c r="O42" t="s"/>
-      <c r="P42" t="s"/>
-      <c r="Q42"/>
       <c r="R42" t="s">
         <v>30</v>
       </c>
-      <c r="S42" t="s"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="S42" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -3295,7 +3389,6 @@
       <c r="E43" t="s">
         <v>140</v>
       </c>
-      <c r="F43"/>
       <c r="G43" t="s">
         <v>141</v>
       </c>
@@ -3320,15 +3413,14 @@
       <c r="N43" t="s">
         <v>29</v>
       </c>
-      <c r="O43" t="s"/>
-      <c r="P43" t="s"/>
-      <c r="Q43"/>
       <c r="R43" t="s">
         <v>30</v>
       </c>
-      <c r="S43" t="s"/>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="S43" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -3344,7 +3436,6 @@
       <c r="E44" t="s">
         <v>140</v>
       </c>
-      <c r="F44"/>
       <c r="G44" t="s">
         <v>141</v>
       </c>
@@ -3369,15 +3460,14 @@
       <c r="N44" t="s">
         <v>29</v>
       </c>
-      <c r="O44" t="s"/>
-      <c r="P44" t="s"/>
-      <c r="Q44"/>
       <c r="R44" t="s">
         <v>30</v>
       </c>
-      <c r="S44" t="s"/>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="S44" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -3396,8 +3486,6 @@
       <c r="F45" t="s">
         <v>207</v>
       </c>
-      <c r="G45" t="s"/>
-      <c r="H45"/>
       <c r="I45" t="s">
         <v>83</v>
       </c>
@@ -3416,17 +3504,17 @@
       <c r="N45" t="s">
         <v>85</v>
       </c>
-      <c r="O45"/>
       <c r="P45" t="s">
         <v>209</v>
       </c>
-      <c r="Q45"/>
       <c r="R45" t="s">
         <v>30</v>
       </c>
-      <c r="S45" t="s"/>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="S45" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -3445,8 +3533,6 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="G46" t="s"/>
-      <c r="H46"/>
       <c r="I46" t="s">
         <v>83</v>
       </c>
@@ -3459,8 +3545,6 @@
       <c r="L46">
         <v>46</v>
       </c>
-      <c r="M46" t="s"/>
-      <c r="N46"/>
       <c r="O46" t="s">
         <v>104</v>
       </c>
@@ -3473,9 +3557,11 @@
       <c r="R46" t="s">
         <v>30</v>
       </c>
-      <c r="S46" t="s"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="S46" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -3530,9 +3616,11 @@
       <c r="R47" t="s">
         <v>30</v>
       </c>
-      <c r="S47" t="s"/>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="S47" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>223</v>
       </c>
@@ -3545,8 +3633,6 @@
       <c r="D48" t="s">
         <v>225</v>
       </c>
-      <c r="E48" t="s"/>
-      <c r="F48"/>
       <c r="G48" t="s">
         <v>226</v>
       </c>
@@ -3559,19 +3645,14 @@
       <c r="J48" t="s">
         <v>228</v>
       </c>
-      <c r="K48" t="s"/>
-      <c r="L48" t="s"/>
-      <c r="M48" t="s"/>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
-      <c r="P48" t="s"/>
-      <c r="Q48"/>
       <c r="R48" t="s">
         <v>30</v>
       </c>
-      <c r="S48" t="s"/>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="S48" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>229</v>
       </c>
@@ -3593,26 +3674,20 @@
       <c r="G49" t="s">
         <v>233</v>
       </c>
-      <c r="H49"/>
       <c r="I49" t="s">
         <v>234</v>
       </c>
       <c r="J49" t="s">
         <v>235</v>
       </c>
-      <c r="K49" t="s"/>
-      <c r="L49" t="s"/>
-      <c r="M49" t="s"/>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="s"/>
-      <c r="Q49"/>
       <c r="R49" t="s">
         <v>30</v>
       </c>
-      <c r="S49" t="s"/>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="S49" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>236</v>
       </c>
@@ -3634,26 +3709,20 @@
       <c r="G50" t="s">
         <v>233</v>
       </c>
-      <c r="H50"/>
       <c r="I50" t="s">
         <v>234</v>
       </c>
       <c r="J50" t="s">
         <v>235</v>
       </c>
-      <c r="K50" t="s"/>
-      <c r="L50" t="s"/>
-      <c r="M50" t="s"/>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="s"/>
-      <c r="Q50"/>
       <c r="R50" t="s">
         <v>30</v>
       </c>
-      <c r="S50" t="s"/>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="S50" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>238</v>
       </c>
@@ -3675,26 +3744,20 @@
       <c r="G51" t="s">
         <v>233</v>
       </c>
-      <c r="H51"/>
       <c r="I51" t="s">
         <v>241</v>
       </c>
       <c r="J51" t="s">
         <v>242</v>
       </c>
-      <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
-      <c r="M51" t="s"/>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51"/>
       <c r="R51" t="s">
         <v>30</v>
       </c>
-      <c r="S51" t="s"/>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="S51" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>243</v>
       </c>
@@ -3710,30 +3773,23 @@
       <c r="E52" t="s">
         <v>245</v>
       </c>
-      <c r="F52"/>
       <c r="G52" t="s">
         <v>246</v>
       </c>
-      <c r="H52"/>
       <c r="I52" t="s">
         <v>247</v>
       </c>
       <c r="J52" t="s">
         <v>248</v>
       </c>
-      <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
-      <c r="M52" t="s"/>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="s"/>
-      <c r="Q52"/>
       <c r="R52" t="s">
         <v>30</v>
       </c>
-      <c r="S52" t="s"/>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="S52" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>249</v>
       </c>
@@ -3764,19 +3820,14 @@
       <c r="J53" t="s">
         <v>254</v>
       </c>
-      <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
-      <c r="M53" t="s"/>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="s"/>
-      <c r="Q53"/>
       <c r="R53" t="s">
         <v>30</v>
       </c>
-      <c r="S53" t="s"/>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="S53" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>255</v>
       </c>
@@ -3807,19 +3858,14 @@
       <c r="J54" t="s">
         <v>228</v>
       </c>
-      <c r="K54" t="s"/>
-      <c r="L54" t="s"/>
-      <c r="M54" t="s"/>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="s"/>
-      <c r="Q54"/>
       <c r="R54" t="s">
         <v>30</v>
       </c>
-      <c r="S54" t="s"/>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="S54" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>259</v>
       </c>
@@ -3832,31 +3878,23 @@
       <c r="D55" t="s">
         <v>80</v>
       </c>
-      <c r="E55" t="s"/>
-      <c r="F55" t="s"/>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s"/>
-      <c r="I55"/>
       <c r="J55" t="s">
         <v>262</v>
       </c>
-      <c r="K55" t="s"/>
-      <c r="L55" t="s"/>
-      <c r="M55" t="s"/>
-      <c r="N55"/>
       <c r="O55" t="s">
         <v>104</v>
       </c>
-      <c r="P55"/>
       <c r="Q55" t="s">
         <v>263</v>
       </c>
       <c r="R55" t="s">
         <v>30</v>
       </c>
-      <c r="S55" t="s"/>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="S55" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>264</v>
       </c>
@@ -3869,31 +3907,23 @@
       <c r="D56" t="s">
         <v>80</v>
       </c>
-      <c r="E56" t="s"/>
-      <c r="F56" t="s"/>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s"/>
-      <c r="I56"/>
       <c r="J56" t="s">
         <v>262</v>
       </c>
-      <c r="K56" t="s"/>
-      <c r="L56" t="s"/>
-      <c r="M56" t="s"/>
-      <c r="N56"/>
       <c r="O56" t="s">
         <v>104</v>
       </c>
-      <c r="P56"/>
       <c r="Q56" t="s">
         <v>267</v>
       </c>
       <c r="R56" t="s">
         <v>30</v>
       </c>
-      <c r="S56" t="s"/>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="S56" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -3906,31 +3936,23 @@
       <c r="D57" t="s">
         <v>80</v>
       </c>
-      <c r="E57" t="s"/>
-      <c r="F57" t="s"/>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s"/>
-      <c r="I57"/>
       <c r="J57" t="s">
         <v>262</v>
       </c>
-      <c r="K57" t="s"/>
-      <c r="L57" t="s"/>
-      <c r="M57" t="s"/>
-      <c r="N57"/>
       <c r="O57" t="s">
         <v>104</v>
       </c>
-      <c r="P57"/>
       <c r="Q57" t="s">
         <v>263</v>
       </c>
       <c r="R57" t="s">
         <v>30</v>
       </c>
-      <c r="S57" t="s"/>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="S57" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>271</v>
       </c>
@@ -3943,31 +3965,23 @@
       <c r="D58" t="s">
         <v>80</v>
       </c>
-      <c r="E58" t="s"/>
-      <c r="F58" t="s"/>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s"/>
-      <c r="I58"/>
       <c r="J58" t="s">
         <v>262</v>
       </c>
-      <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
-      <c r="M58" t="s"/>
-      <c r="N58"/>
       <c r="O58" t="s">
         <v>104</v>
       </c>
-      <c r="P58"/>
       <c r="Q58" t="s">
         <v>267</v>
       </c>
       <c r="R58" t="s">
         <v>30</v>
       </c>
-      <c r="S58" t="s"/>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="S58" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>274</v>
       </c>
@@ -3980,31 +3994,23 @@
       <c r="D59" t="s">
         <v>80</v>
       </c>
-      <c r="E59" t="s"/>
-      <c r="F59" t="s"/>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s"/>
-      <c r="I59"/>
       <c r="J59" t="s">
         <v>262</v>
       </c>
-      <c r="K59" t="s"/>
-      <c r="L59" t="s"/>
-      <c r="M59" t="s"/>
-      <c r="N59"/>
       <c r="O59" t="s">
         <v>104</v>
       </c>
-      <c r="P59"/>
       <c r="Q59" t="s">
         <v>263</v>
       </c>
       <c r="R59" t="s">
         <v>30</v>
       </c>
-      <c r="S59" t="s"/>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="S59" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>277</v>
       </c>
@@ -4017,31 +4023,23 @@
       <c r="D60" t="s">
         <v>80</v>
       </c>
-      <c r="E60" t="s"/>
-      <c r="F60" t="s"/>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s"/>
-      <c r="I60"/>
       <c r="J60" t="s">
         <v>262</v>
       </c>
-      <c r="K60" t="s"/>
-      <c r="L60" t="s"/>
-      <c r="M60" t="s"/>
-      <c r="N60"/>
       <c r="O60" t="s">
         <v>104</v>
       </c>
-      <c r="P60"/>
       <c r="Q60" t="s">
         <v>263</v>
       </c>
       <c r="R60" t="s">
         <v>30</v>
       </c>
-      <c r="S60" t="s"/>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="S60" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>280</v>
       </c>
@@ -4054,42 +4052,24 @@
       <c r="D61" t="s">
         <v>80</v>
       </c>
-      <c r="E61" t="s"/>
-      <c r="F61" t="s"/>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s"/>
-      <c r="I61"/>
       <c r="J61" t="s">
         <v>262</v>
       </c>
-      <c r="K61" t="s"/>
-      <c r="L61" t="s"/>
-      <c r="M61" t="s"/>
-      <c r="N61"/>
       <c r="O61" t="s">
         <v>104</v>
       </c>
-      <c r="P61"/>
       <c r="Q61" t="s">
         <v>267</v>
       </c>
       <c r="R61" t="s">
         <v>30</v>
       </c>
-      <c r="S61" t="s"/>
+      <c r="S61" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>